--- a/Location_Information.xlsx
+++ b/Location_Information.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>Location</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>6160 E LAKE SAMMAMISH PKWY NE, REDMOND, WA, 98052</t>
-  </si>
-  <si>
-    <t>BROADWAY E &amp; E JOHN ST, SEATTLE, WA, 98102</t>
   </si>
 </sst>
 </file>
@@ -224,7 +221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A73"/>
+  <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -585,16 +582,6 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
